--- a/VadersLittleHelper.Backend/db/ComponentDB.xlsx
+++ b/VadersLittleHelper.Backend/db/ComponentDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\VadersLittleHelper\VadersLittleHelper\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\VadersLittleHelper\VadersLittleHelper.Backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5295" windowHeight="5790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5295" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="ShipDB" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="637">
   <si>
     <t>Ship</t>
   </si>
@@ -49,9 +49,6 @@
     <t>T-70 X-Wing</t>
   </si>
   <si>
-    <t>Tie/fo</t>
-  </si>
-  <si>
     <t>Z-95 Headhunter</t>
   </si>
   <si>
@@ -61,21 +58,12 @@
     <t>A-Wing</t>
   </si>
   <si>
-    <t>Tie Striker</t>
-  </si>
-  <si>
     <t>Protectorate Starfighter</t>
   </si>
   <si>
     <t>YV-666</t>
   </si>
   <si>
-    <t>Tie Defender</t>
-  </si>
-  <si>
-    <t>Tie Bomber</t>
-  </si>
-  <si>
     <t>Poe Dameron</t>
   </si>
   <si>
@@ -109,12 +97,6 @@
     <t>Unique</t>
   </si>
   <si>
-    <t>He does Stuff</t>
-  </si>
-  <si>
-    <t>T-70 X-wing</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -124,18 +106,12 @@
     <t>Bossk</t>
   </si>
   <si>
-    <t>Explodes Things</t>
-  </si>
-  <si>
     <t>Zeta Squadron Pilot</t>
   </si>
   <si>
     <t>Imperial</t>
   </si>
   <si>
-    <t>He's Just a Guy</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -1175,6 +1151,792 @@
   </si>
   <si>
     <t>YT-1300 OR YT-2400 ONLY. Your upgrade bar gains the ILLICIT icon. You may equip 1 additional Modification upgrade that costs 3 or fewer squad points.</t>
+  </si>
+  <si>
+    <t>Rear Admiral Chiraneau</t>
+  </si>
+  <si>
+    <t>When attacking at range 1-2, you may change 1 of your FOCUS results to a CRIT result</t>
+  </si>
+  <si>
+    <t>VT-49 Decimator</t>
+  </si>
+  <si>
+    <t>Commander Kenkirk</t>
+  </si>
+  <si>
+    <t>If you have no shields and at least 1 damage card assigned to you, increase your agility value by 1.</t>
+  </si>
+  <si>
+    <t>Captain Oicunn</t>
+  </si>
+  <si>
+    <t>After executing a maneuver, each enemy ship you are touching suffers 1 damage.</t>
+  </si>
+  <si>
+    <t>Patrol Leader</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Maarek Stele</t>
+  </si>
+  <si>
+    <t>When your attack deals a faceup Damage card to the defender, instead draw 3 damage cards, choose 1 to deal, and discard the others.</t>
+  </si>
+  <si>
+    <t>TIE Defender</t>
+  </si>
+  <si>
+    <t>Countess Ryad</t>
+  </si>
+  <si>
+    <t>When you reveal a [forward] maneuver, you may treat is as a [K-Turn] maneuver.</t>
+  </si>
+  <si>
+    <t>Glaive Squadron Pilot</t>
+  </si>
+  <si>
+    <t>Tomax Bren</t>
+  </si>
+  <si>
+    <t>Once per round, after you discard an ELITE Upgrade card, flip that card faceup.</t>
+  </si>
+  <si>
+    <t>TIE Bomber</t>
+  </si>
+  <si>
+    <t>"DeathFire"</t>
+  </si>
+  <si>
+    <t>When you reveal your maneuver dial or after you perform an action, you may perform a BOMB Upgrade card action as a free action.</t>
+  </si>
+  <si>
+    <t>Gamma Squadron Veteran</t>
+  </si>
+  <si>
+    <t>"Duchess"</t>
+  </si>
+  <si>
+    <t>While you have the 'Adaptive Ailerons' Upgrade card equiped, you may choose to ignore its card ability.</t>
+  </si>
+  <si>
+    <t>TIE Striker</t>
+  </si>
+  <si>
+    <t>"Pure Sabacc"</t>
+  </si>
+  <si>
+    <t>When attacking, if you have 1 or fewer Damage cards, roll 1 additional attack die.</t>
+  </si>
+  <si>
+    <t>"Countdown"</t>
+  </si>
+  <si>
+    <t>When defending, if you are not stressed, during the 'Compare Results' step, you may suffer 1 damage to cancel ALL dice results. If you do, receive 1 stress token.</t>
+  </si>
+  <si>
+    <t>Black Squadron Scout</t>
+  </si>
+  <si>
+    <t>Scarif Defender</t>
+  </si>
+  <si>
+    <t>Imperial Trainee</t>
+  </si>
+  <si>
+    <t>"Quickdraw"</t>
+  </si>
+  <si>
+    <t>Once per round, when you lose a shield token, you may perform a primary weapon attack.</t>
+  </si>
+  <si>
+    <t>TIE/sf Fighter</t>
+  </si>
+  <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>P0006</t>
+  </si>
+  <si>
+    <t>P0007</t>
+  </si>
+  <si>
+    <t>P0008</t>
+  </si>
+  <si>
+    <t>P0009</t>
+  </si>
+  <si>
+    <t>P0010</t>
+  </si>
+  <si>
+    <t>P0011</t>
+  </si>
+  <si>
+    <t>P0012</t>
+  </si>
+  <si>
+    <t>P0013</t>
+  </si>
+  <si>
+    <t>P0014</t>
+  </si>
+  <si>
+    <t>P0015</t>
+  </si>
+  <si>
+    <t>P0016</t>
+  </si>
+  <si>
+    <t>P0017</t>
+  </si>
+  <si>
+    <t>"Backdraft"</t>
+  </si>
+  <si>
+    <t>When attacking a ship inside your auxiliary firing arc, you may add 1 CRIT result.</t>
+  </si>
+  <si>
+    <t>Omega Specialist</t>
+  </si>
+  <si>
+    <t>Zeta Specialist</t>
+  </si>
+  <si>
+    <t>"Omega Leader"</t>
+  </si>
+  <si>
+    <t>Enemy ships that you have locked cannot modify any dice when attacking you or defending against your attacks.</t>
+  </si>
+  <si>
+    <t>TIE/fo Fighter</t>
+  </si>
+  <si>
+    <t>"Omega Ace"</t>
+  </si>
+  <si>
+    <t>When attacking, you may spend a focus tocken and a target lock you have on the defender to change all of your results to CRIT results.</t>
+  </si>
+  <si>
+    <t>Omega Squadron Pilot</t>
+  </si>
+  <si>
+    <t>"Zeta Leader"</t>
+  </si>
+  <si>
+    <t>When attacking, if you are not stressed, you may receive 1 stress token to roll 1 additional attack die.</t>
+  </si>
+  <si>
+    <t>"Zeta Ace"</t>
+  </si>
+  <si>
+    <t>When performing a barrel roll, you may use the [Forward 2] template (instead of the [Forward 1] template).</t>
+  </si>
+  <si>
+    <t>"Epsilon Leader"</t>
+  </si>
+  <si>
+    <t>At the start of the Combat phase, remove 1 stress token from each friendly ship at Range 1.</t>
+  </si>
+  <si>
+    <t>"Epsilon Ace"</t>
+  </si>
+  <si>
+    <t>While you do not have any Damage cards, treat your pilot skill value as '12'.</t>
+  </si>
+  <si>
+    <t>Epsilon Squadron Pilot</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>When you reveal a bank maneuver, you may rotate your dial to the other bank maneuver of the same speed.</t>
+  </si>
+  <si>
+    <t>Firespray-31</t>
+  </si>
+  <si>
+    <t>Kath Scarlet</t>
+  </si>
+  <si>
+    <t>When attacking, the defender receives 1 stress token if he cancels at least 1 CRIT result.</t>
+  </si>
+  <si>
+    <t>Krassis Trelix</t>
+  </si>
+  <si>
+    <t>When attacking with a secondary weapon, you may reroll 1 attack die.</t>
+  </si>
+  <si>
+    <t>Bounty Hunter</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>When you are placed during setup, you can be placed anywhere in the play area beyond 3 Range of enemy ships.</t>
+  </si>
+  <si>
+    <t>YT-1300</t>
+  </si>
+  <si>
+    <t>When attacking or defending, if the enemy ship is inside your firing arc, you may reroll up to 2 of your blank results.</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
+    <t>After another friendly ship at Range 1-3 is destroyed (but has not fled the battlefield), you may perform an attack.</t>
+  </si>
+  <si>
+    <t>Resistance Sympathizer</t>
+  </si>
+  <si>
+    <t>Norra Wexley</t>
+  </si>
+  <si>
+    <t>When attacking or defending, you may spend a target lock you have on the enemy ship to add one FOCUS result to your roll.</t>
+  </si>
+  <si>
+    <t>ARC-170</t>
+  </si>
+  <si>
+    <t>Shara Bey</t>
+  </si>
+  <si>
+    <t>When another friendly ship at Range 1-2 is attacking, it may treat your blue target lock tokens as their own.</t>
+  </si>
+  <si>
+    <t>Thane Kyrell</t>
+  </si>
+  <si>
+    <t>After an enemy ship inside your firing arc at Range 1-3 attacks anothe friendly ship, you may perform a free action.</t>
+  </si>
+  <si>
+    <t>Braylen Stramm</t>
+  </si>
+  <si>
+    <t>After you execute a maneuver, you may roll an attack die. On a HIT or CRIT result, remove 1 stress token from your ship.</t>
+  </si>
+  <si>
+    <t>Ten Numb</t>
+  </si>
+  <si>
+    <t>When attacking, 1 of your CRIT results cannot be canceled by defense dice.</t>
+  </si>
+  <si>
+    <t>Keyan Farlander</t>
+  </si>
+  <si>
+    <t>When attacking, you may remove 1 stress token to change all your FOCUS results to HIT results.</t>
+  </si>
+  <si>
+    <t>Nera Dantels</t>
+  </si>
+  <si>
+    <t>You can perform TORPEDO secondary weapon attacks against enemy ships outside of your firing arc.</t>
+  </si>
+  <si>
+    <t>Ibtisam</t>
+  </si>
+  <si>
+    <t>When attacking or defending, if you have at least 1 stress token, you may reroll 1 of your dice.</t>
+  </si>
+  <si>
+    <t>Dagger Squadron Pilot</t>
+  </si>
+  <si>
+    <t>Blue Squadron Pilot</t>
+  </si>
+  <si>
+    <t>Jake Farrell</t>
+  </si>
+  <si>
+    <t>After you perform a focus action or are assigned a focus token, you may perform a free boost or barrel roll action.</t>
+  </si>
+  <si>
+    <t>Gemmer Sojan</t>
+  </si>
+  <si>
+    <t>While you are at Range 1 of at least 1 enemy ship, increase your agility value by 1.</t>
+  </si>
+  <si>
+    <t>Green Squadron Pilot</t>
+  </si>
+  <si>
+    <t>Prototype Pilot</t>
+  </si>
+  <si>
+    <t>P0018</t>
+  </si>
+  <si>
+    <t>P0019</t>
+  </si>
+  <si>
+    <t>P0020</t>
+  </si>
+  <si>
+    <t>P0021</t>
+  </si>
+  <si>
+    <t>P0022</t>
+  </si>
+  <si>
+    <t>P0023</t>
+  </si>
+  <si>
+    <t>P0024</t>
+  </si>
+  <si>
+    <t>P0025</t>
+  </si>
+  <si>
+    <t>P0026</t>
+  </si>
+  <si>
+    <t>P0027</t>
+  </si>
+  <si>
+    <t>P0028</t>
+  </si>
+  <si>
+    <t>P0029</t>
+  </si>
+  <si>
+    <t>P0030</t>
+  </si>
+  <si>
+    <t>P0031</t>
+  </si>
+  <si>
+    <t>P0032</t>
+  </si>
+  <si>
+    <t>P0033</t>
+  </si>
+  <si>
+    <t>P0034</t>
+  </si>
+  <si>
+    <t>P0035</t>
+  </si>
+  <si>
+    <t>P0036</t>
+  </si>
+  <si>
+    <t>P0037</t>
+  </si>
+  <si>
+    <t>P0038</t>
+  </si>
+  <si>
+    <t>P0039</t>
+  </si>
+  <si>
+    <t>P0040</t>
+  </si>
+  <si>
+    <t>P0041</t>
+  </si>
+  <si>
+    <t>P0042</t>
+  </si>
+  <si>
+    <t>P0043</t>
+  </si>
+  <si>
+    <t>P0044</t>
+  </si>
+  <si>
+    <t>P0045</t>
+  </si>
+  <si>
+    <t>P0046</t>
+  </si>
+  <si>
+    <t>P0047</t>
+  </si>
+  <si>
+    <t>P0048</t>
+  </si>
+  <si>
+    <t>P0049</t>
+  </si>
+  <si>
+    <t>P0050</t>
+  </si>
+  <si>
+    <t>P0051</t>
+  </si>
+  <si>
+    <t>While attacking or defending, if you have a focus token, you may change 1 of your FOCUS results to a HIT or EVADE result.</t>
+  </si>
+  <si>
+    <t>Nien Nunb</t>
+  </si>
+  <si>
+    <t>When you receive a stress token, if there is an enemy ship inside yoru firing arc at range 1, you may discard that stress token.</t>
+  </si>
+  <si>
+    <t>Ello Asty</t>
+  </si>
+  <si>
+    <t>While you are not stressed, you may treat your [Tallon Roll] maneuvers as white maneuvers.</t>
+  </si>
+  <si>
+    <t>"Snap" Wexley</t>
+  </si>
+  <si>
+    <t>After you execute a 2-, 3-, or 4-speed maneuver, if you are not touching a ship, you may perform a a free boost action.</t>
+  </si>
+  <si>
+    <t>Jess Pava</t>
+  </si>
+  <si>
+    <t>When attacking or defending, you may reroll 1 of your dice for each other friendly ship at range 1.</t>
+  </si>
+  <si>
+    <t>"Red Ace"</t>
+  </si>
+  <si>
+    <t>The first time you remove a shield token from yoru ship each round, assign 1 evade token to your ship.</t>
+  </si>
+  <si>
+    <t>Red Squadron Veteran</t>
+  </si>
+  <si>
+    <t>"Blue Ace"</t>
+  </si>
+  <si>
+    <t>When performing a boost action, you may use the [Bank 1] template.</t>
+  </si>
+  <si>
+    <t>Blue Squadron Novice</t>
+  </si>
+  <si>
+    <t>P0052</t>
+  </si>
+  <si>
+    <t>P0053</t>
+  </si>
+  <si>
+    <t>P0054</t>
+  </si>
+  <si>
+    <t>P0055</t>
+  </si>
+  <si>
+    <t>P0056</t>
+  </si>
+  <si>
+    <t>P0057</t>
+  </si>
+  <si>
+    <t>P0058</t>
+  </si>
+  <si>
+    <t>P0059</t>
+  </si>
+  <si>
+    <t>P0060</t>
+  </si>
+  <si>
+    <t>P0061</t>
+  </si>
+  <si>
+    <t>S0011</t>
+  </si>
+  <si>
+    <t>S0012</t>
+  </si>
+  <si>
+    <t>When you perform an attack that hits, before dealing damage, you may cancel 1 of your CRIT results to add 2 HIT results.</t>
+  </si>
+  <si>
+    <t>Moralo Eval</t>
+  </si>
+  <si>
+    <t>You can perform CANNON secondary weapon attacks against ships inside your auxiliary firing arc.</t>
+  </si>
+  <si>
+    <t>Latts Razzi</t>
+  </si>
+  <si>
+    <t>When a friendly ship declares an attack, you may spend a target lock you have on the defender to reduce its agility by 1 for that attack.</t>
+  </si>
+  <si>
+    <t>Trandoshan Slaver</t>
+  </si>
+  <si>
+    <t>When attacking, you may roll 1 additional attack die. If you do, the defender rolls 1 additional defense die.</t>
+  </si>
+  <si>
+    <t>G-1A Starfighter</t>
+  </si>
+  <si>
+    <t>At the start of the End phase, you may assign 1 of your stress tokens to another ship at range 1.</t>
+  </si>
+  <si>
+    <t>Gand Findsman</t>
+  </si>
+  <si>
+    <t>Ruthless Freelancer</t>
+  </si>
+  <si>
+    <t>Prince Xizor</t>
+  </si>
+  <si>
+    <t>When Defending, a friendly ship at Range 1 may suffer 1 uncanceled HIT or CRIT result instead of you.</t>
+  </si>
+  <si>
+    <t>StarViper</t>
+  </si>
+  <si>
+    <t>Guri</t>
+  </si>
+  <si>
+    <t>At the start of the Combat phase, if you are at Range 1 of an enemy ship, you may assign 1 focus token to your ship.</t>
+  </si>
+  <si>
+    <t>Black Sun Vigo</t>
+  </si>
+  <si>
+    <t>Black Sun Enforcer</t>
+  </si>
+  <si>
+    <t>Fenn Rau</t>
+  </si>
+  <si>
+    <t>When attacking or defending, if the enemy ship is at Range 1, you may roll 1 additional die.</t>
+  </si>
+  <si>
+    <t>Old Teroch</t>
+  </si>
+  <si>
+    <t>At the start of the Combat phase, you may choose 1 enemy ship at Range 1. If you are inside its firing arc, it discards all focus and evade tokens.</t>
+  </si>
+  <si>
+    <t>Kad Solus</t>
+  </si>
+  <si>
+    <t>After you execute a red maneuver, assign 2 focus tokens to your ship.</t>
+  </si>
+  <si>
+    <t>Concord Dawn Ace</t>
+  </si>
+  <si>
+    <t>Concord Dawn Veteran</t>
+  </si>
+  <si>
+    <t>Zealous Recruit</t>
+  </si>
+  <si>
+    <t>N'Dru Suhlak</t>
+  </si>
+  <si>
+    <t>When attacking, if there are no other friendly ships at Range 1-2, roll 1 additional attack die.</t>
+  </si>
+  <si>
+    <t>Kaa'to Leecharos</t>
+  </si>
+  <si>
+    <t>At the start of the combat phase, you may remove 1 focus or evade token from another friendly ship at Range 1-2 and assign it to yourself.</t>
+  </si>
+  <si>
+    <t>Black Sun Soldier</t>
+  </si>
+  <si>
+    <t>Binayre Pirate</t>
+  </si>
+  <si>
+    <t>Kavil</t>
+  </si>
+  <si>
+    <t>When attacking a ship outside your firing arc, roll 1 additional attack die.</t>
+  </si>
+  <si>
+    <t>Y-Wing</t>
+  </si>
+  <si>
+    <t>Drea Renthal</t>
+  </si>
+  <si>
+    <t>After you spend a target lock, you may receive 1 stress token to acquire a target lock.</t>
+  </si>
+  <si>
+    <t>Hired Gun</t>
+  </si>
+  <si>
+    <t>Syndicate Thug</t>
+  </si>
+  <si>
+    <t>When attacking or defending, you may reroll 1 of your dice for each enemy ship at Range 1.</t>
+  </si>
+  <si>
+    <t>When attacking a ship inside your auxiliary firing arc, roll 1 additional attack die.</t>
+  </si>
+  <si>
+    <t>Emon Azzameen</t>
+  </si>
+  <si>
+    <t>When dropping a bomb, you may use the [Bank 3] or [Forward 3] template instead of the [Forward 1] template.</t>
+  </si>
+  <si>
+    <t>Mandalorian Mercenary</t>
+  </si>
+  <si>
+    <t>Dace Bonearm</t>
+  </si>
+  <si>
+    <t>When an enemy ship at Range 1-3 receives at least 1 ion token, if you are not stressed, you may receive 1 stress token to cause that ship to suffer 1 damage.</t>
+  </si>
+  <si>
+    <t>HWK-290</t>
+  </si>
+  <si>
+    <t>Palob Godalhi</t>
+  </si>
+  <si>
+    <t>At the start of the combat phase, you may remove 1 focus or evade token from an enemy ship at Range 1-2 and assign it to yourself.</t>
+  </si>
+  <si>
+    <t>Torkil Mux</t>
+  </si>
+  <si>
+    <t>At the end of the Activation phase, choose 1 enemy ship at Range 1-2. Until the the end of the Combat phase, treat that ship's pilot skill value as '0'.</t>
+  </si>
+  <si>
+    <t>Spice Runner</t>
+  </si>
+  <si>
+    <t>P0062</t>
+  </si>
+  <si>
+    <t>P0063</t>
+  </si>
+  <si>
+    <t>P0064</t>
+  </si>
+  <si>
+    <t>P0065</t>
+  </si>
+  <si>
+    <t>P0066</t>
+  </si>
+  <si>
+    <t>P0067</t>
+  </si>
+  <si>
+    <t>P0068</t>
+  </si>
+  <si>
+    <t>P0069</t>
+  </si>
+  <si>
+    <t>P0070</t>
+  </si>
+  <si>
+    <t>P0071</t>
+  </si>
+  <si>
+    <t>P0072</t>
+  </si>
+  <si>
+    <t>P0073</t>
+  </si>
+  <si>
+    <t>P0074</t>
+  </si>
+  <si>
+    <t>P0075</t>
+  </si>
+  <si>
+    <t>P0076</t>
+  </si>
+  <si>
+    <t>P0077</t>
+  </si>
+  <si>
+    <t>P0078</t>
+  </si>
+  <si>
+    <t>P0079</t>
+  </si>
+  <si>
+    <t>P0080</t>
+  </si>
+  <si>
+    <t>P0081</t>
+  </si>
+  <si>
+    <t>P0082</t>
+  </si>
+  <si>
+    <t>P0083</t>
+  </si>
+  <si>
+    <t>P0084</t>
+  </si>
+  <si>
+    <t>P0085</t>
+  </si>
+  <si>
+    <t>P0086</t>
+  </si>
+  <si>
+    <t>P0087</t>
+  </si>
+  <si>
+    <t>P0088</t>
+  </si>
+  <si>
+    <t>P0089</t>
+  </si>
+  <si>
+    <t>P0090</t>
+  </si>
+  <si>
+    <t>P0091</t>
+  </si>
+  <si>
+    <t>P0092</t>
+  </si>
+  <si>
+    <t>P0093</t>
+  </si>
+  <si>
+    <t>P0094</t>
+  </si>
+  <si>
+    <t>P0095</t>
+  </si>
+  <si>
+    <t>S0013</t>
+  </si>
+  <si>
+    <t>S0014</t>
+  </si>
+  <si>
+    <t>S0015</t>
+  </si>
+  <si>
+    <t>S0016</t>
+  </si>
+  <si>
+    <t>S0017</t>
+  </si>
+  <si>
+    <t>S0018</t>
+  </si>
+  <si>
+    <t>S0019</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1238,6 +2000,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1553,10 +2321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,7 +2334,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1577,43 +2345,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>386</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>392</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>398</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1621,10 +2389,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>408</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1632,32 +2400,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>429</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>444</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>452</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1665,10 +2433,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>459</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1676,13 +2444,112 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>630</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>631</v>
+      </c>
+      <c r="B15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>632</v>
+      </c>
+      <c r="B16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>633</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>634</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>635</v>
+      </c>
+      <c r="B19" t="s">
+        <v>578</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>636</v>
+      </c>
+      <c r="B20" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1693,180 +2560,3958 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="26.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="9">
+        <v>46</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>12</v>
+      </c>
+      <c r="L2" s="5">
+        <v>4</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="9">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>12</v>
+      </c>
+      <c r="L3" s="5">
+        <v>4</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="9">
+        <v>42</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>12</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="9">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="9">
+        <v>35</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="9">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>3</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" s="9">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3</v>
+      </c>
+      <c r="L8" s="5">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="9">
+        <v>24</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>6</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" s="9">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>6</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="9">
+        <v>19</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>6</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D12" s="9">
+        <v>23</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>4</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D13" s="9">
+        <v>22</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="5">
+        <v>6</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D14" s="9">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>3</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2</v>
+      </c>
+      <c r="K14" s="5">
+        <v>4</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="9">
+        <v>20</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>4</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="9">
+        <v>18</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3</v>
+      </c>
+      <c r="I16" s="5">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>4</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D17" s="9">
+        <v>17</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>3</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2</v>
+      </c>
+      <c r="K17" s="5">
+        <v>4</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="9">
+        <v>29</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="5">
+        <v>9</v>
+      </c>
+      <c r="I18" s="5">
+        <v>2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>2</v>
+      </c>
+      <c r="K18" s="5">
+        <v>3</v>
+      </c>
+      <c r="L18" s="5">
+        <v>3</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D19" s="9">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="5">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>3</v>
+      </c>
+      <c r="L19" s="5">
+        <v>3</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" s="9">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="5">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3</v>
+      </c>
+      <c r="L20" s="5">
+        <v>3</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" s="9">
+        <v>23</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="5">
+        <v>3</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3</v>
+      </c>
+      <c r="L21" s="5">
+        <v>3</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D22" s="9">
+        <v>21</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="5">
+        <v>8</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>3</v>
+      </c>
+      <c r="K22" s="5">
+        <v>3</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D23" s="9">
+        <v>20</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="5">
+        <v>7</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3</v>
+      </c>
+      <c r="K23" s="5">
+        <v>3</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D24" s="9">
+        <v>17</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="5">
+        <v>4</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2</v>
+      </c>
+      <c r="J24" s="5">
+        <v>3</v>
+      </c>
+      <c r="K24" s="5">
+        <v>3</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="9">
+        <v>20</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="5">
+        <v>7</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>3</v>
+      </c>
+      <c r="K25" s="5">
+        <v>3</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D26" s="9">
+        <v>18</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3</v>
+      </c>
+      <c r="K26" s="5">
+        <v>3</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C27" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" s="9">
+        <v>16</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="5">
+        <v>3</v>
+      </c>
+      <c r="I27" s="5">
+        <v>2</v>
+      </c>
+      <c r="J27" s="5">
+        <v>3</v>
+      </c>
+      <c r="K27" s="5">
+        <v>3</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D28" s="9">
+        <v>19</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="5">
+        <v>6</v>
+      </c>
+      <c r="I28" s="5">
+        <v>2</v>
+      </c>
+      <c r="J28" s="5">
+        <v>3</v>
+      </c>
+      <c r="K28" s="5">
+        <v>3</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D29" s="9">
+        <v>17</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="5">
+        <v>4</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2</v>
+      </c>
+      <c r="J29" s="5">
+        <v>3</v>
+      </c>
+      <c r="K29" s="5">
+        <v>3</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D30" s="9">
+        <v>15</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5">
+        <v>2</v>
+      </c>
+      <c r="J30" s="5">
+        <v>3</v>
+      </c>
+      <c r="K30" s="5">
+        <v>3</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D31" s="9">
+        <v>39</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="5">
+        <v>8</v>
+      </c>
+      <c r="I31" s="5">
+        <v>3</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2</v>
+      </c>
+      <c r="K31" s="5">
+        <v>6</v>
+      </c>
+      <c r="L31" s="5">
+        <v>4</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D32" s="9">
+        <v>38</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="5">
+        <v>7</v>
+      </c>
+      <c r="I32" s="5">
+        <v>3</v>
+      </c>
+      <c r="J32" s="5">
+        <v>2</v>
+      </c>
+      <c r="K32" s="5">
+        <v>6</v>
+      </c>
+      <c r="L32" s="5">
+        <v>4</v>
+      </c>
+      <c r="M32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D33" s="9">
+        <v>36</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="5">
+        <v>5</v>
+      </c>
+      <c r="I33" s="5">
+        <v>3</v>
+      </c>
+      <c r="J33" s="5">
+        <v>2</v>
+      </c>
+      <c r="K33" s="5">
+        <v>6</v>
+      </c>
+      <c r="L33" s="5">
+        <v>4</v>
+      </c>
+      <c r="M33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D34" s="9">
+        <v>33</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="5">
+        <v>3</v>
+      </c>
+      <c r="I34" s="5">
+        <v>3</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2</v>
+      </c>
+      <c r="K34" s="5">
+        <v>6</v>
+      </c>
+      <c r="L34" s="5">
+        <v>4</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D35" s="9">
+        <v>46</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="5">
+        <v>9</v>
+      </c>
+      <c r="I35" s="5">
+        <v>3</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>8</v>
+      </c>
+      <c r="L35" s="5">
+        <v>5</v>
+      </c>
+      <c r="M35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D36" s="9">
+        <v>45</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="5">
+        <v>8</v>
+      </c>
+      <c r="I36" s="5">
+        <v>3</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <v>8</v>
+      </c>
+      <c r="L36" s="5">
+        <v>5</v>
+      </c>
+      <c r="M36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D37" s="9">
+        <v>42</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="5">
+        <v>5</v>
+      </c>
+      <c r="I37" s="5">
+        <v>3</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>8</v>
+      </c>
+      <c r="L37" s="5">
+        <v>5</v>
+      </c>
+      <c r="M37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" s="9">
+        <v>38</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="5">
+        <v>3</v>
+      </c>
+      <c r="I38" s="5">
+        <v>3</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>8</v>
+      </c>
+      <c r="L38" s="5">
+        <v>5</v>
+      </c>
+      <c r="M38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D39" s="9">
+        <v>29</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="5">
+        <v>7</v>
+      </c>
+      <c r="I39" s="5">
+        <v>2</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>6</v>
+      </c>
+      <c r="L39" s="5">
+        <v>3</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D40" s="9">
+        <v>28</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="5">
+        <v>6</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5">
+        <v>6</v>
+      </c>
+      <c r="L40" s="5">
+        <v>3</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D41" s="9">
+        <v>26</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="5">
+        <v>4</v>
+      </c>
+      <c r="I41" s="5">
+        <v>2</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>6</v>
+      </c>
+      <c r="L41" s="5">
+        <v>3</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D42" s="9">
+        <v>25</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="5">
+        <v>3</v>
+      </c>
+      <c r="I42" s="5">
+        <v>2</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5">
+        <v>6</v>
+      </c>
+      <c r="L42" s="5">
+        <v>3</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D43" s="9">
+        <v>31</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="5">
+        <v>8</v>
+      </c>
+      <c r="I43" s="5">
+        <v>3</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>3</v>
+      </c>
+      <c r="L43" s="5">
+        <v>5</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D44" s="9">
+        <v>29</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="5">
+        <v>7</v>
+      </c>
+      <c r="I44" s="5">
+        <v>3</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>3</v>
+      </c>
+      <c r="L44" s="5">
+        <v>5</v>
+      </c>
+      <c r="M44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D45" s="9">
+        <v>26</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="5">
+        <v>5</v>
+      </c>
+      <c r="I45" s="5">
+        <v>3</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5">
+        <v>3</v>
+      </c>
+      <c r="L45" s="5">
+        <v>5</v>
+      </c>
+      <c r="M45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D46" s="9">
+        <v>28</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="5">
+        <v>6</v>
+      </c>
+      <c r="I46" s="5">
+        <v>3</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>3</v>
+      </c>
+      <c r="L46" s="5">
+        <v>5</v>
+      </c>
+      <c r="M46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D47" s="9">
+        <v>24</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="5">
+        <v>4</v>
+      </c>
+      <c r="I47" s="5">
+        <v>3</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5">
+        <v>3</v>
+      </c>
+      <c r="L47" s="5">
+        <v>5</v>
+      </c>
+      <c r="M47" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D48" s="9">
+        <v>22</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2</v>
+      </c>
+      <c r="I48" s="5">
+        <v>3</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5">
+        <v>3</v>
+      </c>
+      <c r="L48" s="5">
+        <v>5</v>
+      </c>
+      <c r="M48" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D49" s="9">
+        <v>24</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="5">
+        <v>7</v>
+      </c>
+      <c r="I49" s="5">
+        <v>2</v>
+      </c>
+      <c r="J49" s="5">
+        <v>3</v>
+      </c>
+      <c r="K49" s="5">
+        <v>2</v>
+      </c>
+      <c r="L49" s="5">
+        <v>2</v>
+      </c>
+      <c r="M49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D50" s="9">
+        <v>22</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="5">
+        <v>5</v>
+      </c>
+      <c r="I50" s="5">
+        <v>2</v>
+      </c>
+      <c r="J50" s="5">
+        <v>3</v>
+      </c>
+      <c r="K50" s="5">
+        <v>2</v>
+      </c>
+      <c r="L50" s="5">
+        <v>2</v>
+      </c>
+      <c r="M50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D51" s="9">
+        <v>19</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="5">
+        <v>3</v>
+      </c>
+      <c r="I51" s="5">
+        <v>2</v>
+      </c>
+      <c r="J51" s="5">
+        <v>3</v>
+      </c>
+      <c r="K51" s="5">
+        <v>2</v>
+      </c>
+      <c r="L51" s="5">
+        <v>2</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D52" s="9">
+        <v>17</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5">
+        <v>2</v>
+      </c>
+      <c r="J52" s="5">
+        <v>3</v>
+      </c>
+      <c r="K52" s="5">
+        <v>2</v>
+      </c>
+      <c r="L52" s="5">
+        <v>2</v>
+      </c>
+      <c r="M52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D53" s="9">
+        <v>33</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="5">
+        <v>9</v>
+      </c>
+      <c r="I53" s="5">
+        <v>3</v>
+      </c>
+      <c r="J53" s="5">
+        <v>2</v>
+      </c>
+      <c r="K53" s="5">
+        <v>3</v>
+      </c>
+      <c r="L53" s="5">
+        <v>3</v>
+      </c>
+      <c r="M53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D54" s="9">
+        <v>31</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="5">
+        <v>8</v>
+      </c>
+      <c r="I54" s="5">
+        <v>3</v>
+      </c>
+      <c r="J54" s="5">
+        <v>2</v>
+      </c>
+      <c r="K54" s="5">
+        <v>3</v>
+      </c>
+      <c r="L54" s="5">
+        <v>3</v>
+      </c>
+      <c r="M54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D55" s="9">
+        <v>29</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="5">
+        <v>7</v>
+      </c>
+      <c r="I55" s="5">
+        <v>3</v>
+      </c>
+      <c r="J55" s="5">
+        <v>2</v>
+      </c>
+      <c r="K55" s="5">
+        <v>3</v>
+      </c>
+      <c r="L55" s="5">
+        <v>3</v>
+      </c>
+      <c r="M55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D56" s="9">
+        <v>30</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="5">
+        <v>7</v>
+      </c>
+      <c r="I56" s="5">
+        <v>3</v>
+      </c>
+      <c r="J56" s="5">
+        <v>2</v>
+      </c>
+      <c r="K56" s="5">
+        <v>3</v>
+      </c>
+      <c r="L56" s="5">
+        <v>3</v>
+      </c>
+      <c r="M56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D57" s="9">
+        <v>28</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="5">
+        <v>6</v>
+      </c>
+      <c r="I57" s="5">
+        <v>3</v>
+      </c>
+      <c r="J57" s="5">
+        <v>2</v>
+      </c>
+      <c r="K57" s="5">
+        <v>3</v>
+      </c>
+      <c r="L57" s="5">
+        <v>3</v>
+      </c>
+      <c r="M57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D58" s="9">
+        <v>25</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="5">
+        <v>3</v>
+      </c>
+      <c r="I58" s="5">
+        <v>3</v>
+      </c>
+      <c r="J58" s="5">
+        <v>2</v>
+      </c>
+      <c r="K58" s="5">
+        <v>3</v>
+      </c>
+      <c r="L58" s="5">
+        <v>3</v>
+      </c>
+      <c r="M58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D59" s="9">
+        <v>29</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="5">
+        <v>6</v>
+      </c>
+      <c r="I59" s="5">
+        <v>3</v>
+      </c>
+      <c r="J59" s="5">
+        <v>2</v>
+      </c>
+      <c r="K59" s="5">
+        <v>3</v>
+      </c>
+      <c r="L59" s="5">
+        <v>3</v>
+      </c>
+      <c r="M59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D60" s="9">
+        <v>26</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="5">
+        <v>4</v>
+      </c>
+      <c r="I60" s="5">
+        <v>3</v>
+      </c>
+      <c r="J60" s="5">
+        <v>2</v>
+      </c>
+      <c r="K60" s="5">
+        <v>3</v>
+      </c>
+      <c r="L60" s="5">
+        <v>3</v>
+      </c>
+      <c r="M60" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D61" s="9">
+        <v>27</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="5">
+        <v>5</v>
+      </c>
+      <c r="I61" s="5">
+        <v>3</v>
+      </c>
+      <c r="J61" s="5">
+        <v>2</v>
+      </c>
+      <c r="K61" s="5">
+        <v>3</v>
+      </c>
+      <c r="L61" s="5">
+        <v>3</v>
+      </c>
+      <c r="M61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D62" s="9">
+        <v>24</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2</v>
+      </c>
+      <c r="I62" s="5">
+        <v>3</v>
+      </c>
+      <c r="J62" s="5">
+        <v>2</v>
+      </c>
+      <c r="K62" s="5">
+        <v>3</v>
+      </c>
+      <c r="L62" s="5">
+        <v>3</v>
+      </c>
+      <c r="M62" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D63" s="9">
+        <v>35</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="5">
+        <v>7</v>
+      </c>
+      <c r="I63" s="5">
+        <v>3</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5">
+        <v>6</v>
+      </c>
+      <c r="L63" s="5">
+        <v>6</v>
+      </c>
+      <c r="M63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D64" s="9">
+        <v>34</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="5">
+        <v>6</v>
+      </c>
+      <c r="I64" s="5">
+        <v>3</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5">
+        <v>6</v>
+      </c>
+      <c r="L64" s="5">
+        <v>6</v>
+      </c>
+      <c r="M64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D65" s="9">
+        <v>33</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="5">
+        <v>5</v>
+      </c>
+      <c r="I65" s="5">
+        <v>3</v>
+      </c>
+      <c r="J65" s="5">
+        <v>1</v>
+      </c>
+      <c r="K65" s="5">
+        <v>6</v>
+      </c>
+      <c r="L65" s="5">
+        <v>6</v>
+      </c>
+      <c r="M65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D66" s="9">
+        <v>29</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2</v>
+      </c>
+      <c r="I66" s="5">
+        <v>3</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1</v>
+      </c>
+      <c r="K66" s="5">
+        <v>6</v>
+      </c>
+      <c r="L66" s="5">
+        <v>6</v>
+      </c>
+      <c r="M66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D67" s="9">
+        <v>28</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="5">
+        <v>7</v>
+      </c>
+      <c r="I67" s="5">
+        <v>3</v>
+      </c>
+      <c r="J67" s="5">
+        <v>1</v>
+      </c>
+      <c r="K67" s="5">
+        <v>4</v>
+      </c>
+      <c r="L67" s="5">
+        <v>4</v>
+      </c>
+      <c r="M67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D68" s="9">
+        <v>27</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="5">
+        <v>6</v>
+      </c>
+      <c r="I68" s="5">
+        <v>3</v>
+      </c>
+      <c r="J68" s="5">
+        <v>1</v>
+      </c>
+      <c r="K68" s="5">
+        <v>4</v>
+      </c>
+      <c r="L68" s="5">
+        <v>4</v>
+      </c>
+      <c r="M68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D69" s="9">
+        <v>25</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="5">
+        <v>5</v>
+      </c>
+      <c r="I69" s="5">
+        <v>3</v>
+      </c>
+      <c r="J69" s="5">
+        <v>1</v>
+      </c>
+      <c r="K69" s="5">
+        <v>4</v>
+      </c>
+      <c r="L69" s="5">
+        <v>4</v>
+      </c>
+      <c r="M69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D70" s="9">
+        <v>23</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="5">
+        <v>3</v>
+      </c>
+      <c r="I70" s="5">
+        <v>3</v>
+      </c>
+      <c r="J70" s="5">
+        <v>1</v>
+      </c>
+      <c r="K70" s="5">
+        <v>4</v>
+      </c>
+      <c r="L70" s="5">
+        <v>4</v>
+      </c>
+      <c r="M70" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D71" s="9">
+        <v>31</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="5">
+        <v>7</v>
+      </c>
+      <c r="I71" s="5">
+        <v>3</v>
+      </c>
+      <c r="J71" s="5">
+        <v>3</v>
+      </c>
+      <c r="K71" s="5">
+        <v>4</v>
+      </c>
+      <c r="L71" s="5">
+        <v>1</v>
+      </c>
+      <c r="M71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D72" s="9">
+        <v>30</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="5">
+        <v>5</v>
+      </c>
+      <c r="I72" s="5">
+        <v>3</v>
+      </c>
+      <c r="J72" s="5">
+        <v>3</v>
+      </c>
+      <c r="K72" s="5">
+        <v>4</v>
+      </c>
+      <c r="L72" s="5">
+        <v>1</v>
+      </c>
+      <c r="M72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D73" s="9">
+        <v>27</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="5">
+        <v>3</v>
+      </c>
+      <c r="I73" s="5">
+        <v>3</v>
+      </c>
+      <c r="J73" s="5">
+        <v>3</v>
+      </c>
+      <c r="K73" s="5">
+        <v>4</v>
+      </c>
+      <c r="L73" s="5">
+        <v>1</v>
+      </c>
+      <c r="M73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D74" s="9">
+        <v>25</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="5">
+        <v>1</v>
+      </c>
+      <c r="I74" s="5">
+        <v>3</v>
+      </c>
+      <c r="J74" s="5">
+        <v>3</v>
+      </c>
+      <c r="K74" s="5">
+        <v>4</v>
+      </c>
+      <c r="L74" s="5">
+        <v>1</v>
+      </c>
+      <c r="M74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D75" s="9">
+        <v>28</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="5">
+        <v>9</v>
+      </c>
+      <c r="I75" s="5">
+        <v>3</v>
+      </c>
+      <c r="J75" s="5">
+        <v>3</v>
+      </c>
+      <c r="K75" s="5">
+        <v>4</v>
+      </c>
+      <c r="L75" s="5">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M75" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D76" s="9">
+        <v>26</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="5">
+        <v>7</v>
+      </c>
+      <c r="I76" s="5">
+        <v>3</v>
+      </c>
+      <c r="J76" s="5">
+        <v>3</v>
+      </c>
+      <c r="K76" s="5">
+        <v>4</v>
+      </c>
+      <c r="L76" s="5">
+        <v>0</v>
+      </c>
+      <c r="M76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D77" s="9">
+        <v>25</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="5">
+        <v>6</v>
+      </c>
+      <c r="I77" s="5">
+        <v>3</v>
+      </c>
+      <c r="J77" s="5">
+        <v>3</v>
+      </c>
+      <c r="K77" s="5">
+        <v>4</v>
+      </c>
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
+      <c r="M77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D78" s="9">
+        <v>23</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="5">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="I78" s="5">
+        <v>3</v>
+      </c>
+      <c r="J78" s="5">
+        <v>3</v>
+      </c>
+      <c r="K78" s="5">
+        <v>4</v>
+      </c>
+      <c r="L78" s="5">
+        <v>0</v>
+      </c>
+      <c r="M78" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D79" s="9">
+        <v>22</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="5">
+        <v>3</v>
+      </c>
+      <c r="I79" s="5">
+        <v>3</v>
+      </c>
+      <c r="J79" s="5">
+        <v>3</v>
+      </c>
+      <c r="K79" s="5">
+        <v>4</v>
+      </c>
+      <c r="L79" s="5">
+        <v>0</v>
+      </c>
+      <c r="M79" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D80" s="9">
+        <v>20</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1</v>
+      </c>
+      <c r="I80" s="5">
+        <v>3</v>
+      </c>
+      <c r="J80" s="5">
+        <v>3</v>
+      </c>
+      <c r="K80" s="5">
+        <v>4</v>
+      </c>
+      <c r="L80" s="5">
+        <v>0</v>
+      </c>
+      <c r="M80" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D81" s="9">
+        <v>17</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="5">
+        <v>7</v>
+      </c>
+      <c r="I81" s="5">
+        <v>2</v>
+      </c>
+      <c r="J81" s="5">
+        <v>2</v>
+      </c>
+      <c r="K81" s="5">
+        <v>2</v>
+      </c>
+      <c r="L81" s="5">
+        <v>2</v>
+      </c>
+      <c r="M81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D82" s="9">
+        <v>15</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="5">
+        <v>5</v>
+      </c>
+      <c r="I82" s="5">
+        <v>2</v>
+      </c>
+      <c r="J82" s="5">
+        <v>2</v>
+      </c>
+      <c r="K82" s="5">
+        <v>2</v>
+      </c>
+      <c r="L82" s="5">
+        <v>2</v>
+      </c>
+      <c r="M82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D83" s="9">
+        <v>13</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="5">
+        <v>3</v>
+      </c>
+      <c r="I83" s="5">
+        <v>2</v>
+      </c>
+      <c r="J83" s="5">
+        <v>2</v>
+      </c>
+      <c r="K83" s="5">
+        <v>2</v>
+      </c>
+      <c r="L83" s="5">
+        <v>2</v>
+      </c>
+      <c r="M83" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D84" s="9">
+        <v>12</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1</v>
+      </c>
+      <c r="I84" s="5">
+        <v>2</v>
+      </c>
+      <c r="J84" s="5">
+        <v>2</v>
+      </c>
+      <c r="K84" s="5">
+        <v>2</v>
+      </c>
+      <c r="L84" s="5">
+        <v>2</v>
+      </c>
+      <c r="M84" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D85" s="9">
+        <v>24</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="5">
+        <v>7</v>
+      </c>
+      <c r="I85" s="5">
+        <v>2</v>
+      </c>
+      <c r="J85" s="5">
+        <v>1</v>
+      </c>
+      <c r="K85" s="5">
+        <v>5</v>
+      </c>
+      <c r="L85" s="5">
+        <v>3</v>
+      </c>
+      <c r="M85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D86" s="9">
+        <v>22</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="5">
+        <v>5</v>
+      </c>
+      <c r="I86" s="5">
+        <v>2</v>
+      </c>
+      <c r="J86" s="5">
+        <v>1</v>
+      </c>
+      <c r="K86" s="5">
+        <v>5</v>
+      </c>
+      <c r="L86" s="5">
+        <v>3</v>
+      </c>
+      <c r="M86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D87" s="9">
+        <v>20</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="5">
+        <v>4</v>
+      </c>
+      <c r="I87" s="5">
+        <v>2</v>
+      </c>
+      <c r="J87" s="5">
+        <v>1</v>
+      </c>
+      <c r="K87" s="5">
+        <v>5</v>
+      </c>
+      <c r="L87" s="5">
+        <v>3</v>
+      </c>
+      <c r="M87" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D88" s="9">
+        <v>18</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="5">
+        <v>2</v>
+      </c>
+      <c r="I88" s="5">
+        <v>2</v>
+      </c>
+      <c r="J88" s="5">
+        <v>1</v>
+      </c>
+      <c r="K88" s="5">
+        <v>5</v>
+      </c>
+      <c r="L88" s="5">
+        <v>3</v>
+      </c>
+      <c r="M88" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D89" s="9">
+        <v>39</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="5">
+        <v>8</v>
+      </c>
+      <c r="I89" s="5">
+        <v>3</v>
+      </c>
+      <c r="J89" s="5">
+        <v>2</v>
+      </c>
+      <c r="K89" s="5">
+        <v>6</v>
+      </c>
+      <c r="L89" s="5">
+        <v>4</v>
+      </c>
+      <c r="M89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D90" s="9">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E90" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="5">
+        <v>7</v>
+      </c>
+      <c r="I90" s="5">
+        <v>3</v>
+      </c>
+      <c r="J90" s="5">
+        <v>2</v>
+      </c>
+      <c r="K90" s="5">
+        <v>6</v>
+      </c>
+      <c r="L90" s="5">
+        <v>4</v>
+      </c>
+      <c r="M90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D91" s="9">
+        <v>36</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="5">
+        <v>6</v>
+      </c>
+      <c r="I91" s="5">
+        <v>3</v>
+      </c>
+      <c r="J91" s="5">
+        <v>2</v>
+      </c>
+      <c r="K91" s="5">
+        <v>6</v>
+      </c>
+      <c r="L91" s="5">
+        <v>4</v>
+      </c>
+      <c r="M91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D92" s="9">
+        <v>35</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="5">
+        <v>5</v>
+      </c>
+      <c r="I92" s="5">
+        <v>3</v>
+      </c>
+      <c r="J92" s="5">
+        <v>2</v>
+      </c>
+      <c r="K92" s="5">
+        <v>6</v>
+      </c>
+      <c r="L92" s="5">
+        <v>4</v>
+      </c>
+      <c r="M92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D93" s="9">
+        <v>23</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="5">
+        <v>7</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1</v>
+      </c>
+      <c r="J93" s="5">
+        <v>2</v>
+      </c>
+      <c r="K93" s="5">
+        <v>4</v>
+      </c>
+      <c r="L93" s="5">
+        <v>1</v>
+      </c>
+      <c r="M93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D94" s="9">
+        <v>20</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="5">
+        <v>5</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1</v>
+      </c>
+      <c r="J94" s="5">
+        <v>2</v>
+      </c>
+      <c r="K94" s="5">
+        <v>4</v>
+      </c>
+      <c r="L94" s="5">
+        <v>1</v>
+      </c>
+      <c r="M94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D95" s="9">
+        <v>19</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="5">
+        <v>3</v>
+      </c>
+      <c r="I95" s="5">
+        <v>1</v>
+      </c>
+      <c r="J95" s="5">
+        <v>2</v>
+      </c>
+      <c r="K95" s="5">
+        <v>4</v>
+      </c>
+      <c r="L95" s="5">
+        <v>1</v>
+      </c>
+      <c r="M95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D96" s="9">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
+      <c r="E96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="5">
+        <v>1</v>
+      </c>
+      <c r="I96" s="5">
+        <v>1</v>
+      </c>
+      <c r="J96" s="5">
+        <v>2</v>
+      </c>
+      <c r="K96" s="5">
+        <v>4</v>
+      </c>
+      <c r="L96" s="5">
+        <v>1</v>
+      </c>
+      <c r="M96" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1879,8 +6524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
@@ -1894,22 +6539,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -1920,25 +6565,25 @@
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H2" s="5">
         <v>2</v>
@@ -1946,25 +6591,25 @@
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
@@ -1972,25 +6617,25 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
@@ -1998,25 +6643,25 @@
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5">
         <v>-2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H5" s="5">
         <v>2</v>
@@ -2024,25 +6669,25 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H6" s="5">
         <v>2</v>
@@ -2050,25 +6695,25 @@
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H7" s="5">
         <v>2</v>
@@ -2076,25 +6721,25 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
@@ -2102,25 +6747,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
@@ -2128,25 +6773,25 @@
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5">
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -2154,25 +6799,25 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
@@ -2180,25 +6825,25 @@
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H12" s="5">
         <v>2</v>
@@ -2206,25 +6851,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D13" s="5">
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -2232,25 +6877,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H14" s="5">
         <v>2</v>
@@ -2258,25 +6903,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H15" s="5">
         <v>2</v>
@@ -2284,25 +6929,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
@@ -2310,25 +6955,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D17" s="5">
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -2336,25 +6981,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -2362,25 +7007,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D19" s="5">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -2388,25 +7033,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
@@ -2414,25 +7059,25 @@
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H21" s="5">
         <v>2</v>
@@ -2440,25 +7085,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D22" s="5">
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H22" s="5">
         <v>2</v>
@@ -2466,25 +7111,25 @@
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D23" s="5">
         <v>3</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
@@ -2492,25 +7137,25 @@
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D24" s="5">
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H24" s="5">
         <v>1</v>
@@ -2518,25 +7163,25 @@
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H25" s="5">
         <v>2</v>
@@ -2544,25 +7189,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H26" s="5">
         <v>2</v>
@@ -2570,25 +7215,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H27" s="5">
         <v>1</v>
@@ -2596,25 +7241,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
@@ -2622,25 +7267,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D29" s="5">
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H29" s="5">
         <v>1</v>
@@ -2648,25 +7293,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D30" s="5">
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H30" s="5">
         <v>1</v>
@@ -2674,25 +7319,25 @@
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
@@ -2700,25 +7345,25 @@
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H32" s="5">
         <v>1</v>
@@ -2726,25 +7371,25 @@
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D33" s="5">
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H33" s="5">
         <v>1</v>
@@ -2752,25 +7397,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D34" s="5">
         <v>2</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H34" s="5">
         <v>2</v>
@@ -2778,25 +7423,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D35" s="5">
         <v>3</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H35" s="5">
         <v>2</v>
@@ -2804,25 +7449,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
@@ -2830,25 +7475,25 @@
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D37" s="5">
         <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
@@ -2856,25 +7501,25 @@
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D38" s="5">
         <v>2</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H38" s="5">
         <v>1</v>
@@ -2882,25 +7527,25 @@
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D39" s="5">
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
@@ -2908,25 +7553,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D40" s="5">
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
@@ -2934,25 +7579,25 @@
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D41" s="5">
         <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H41" s="5">
         <v>3</v>
@@ -2960,25 +7605,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D42" s="5">
         <v>2</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H42" s="5">
         <v>2</v>
@@ -2986,25 +7631,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D43" s="5">
         <v>4</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
@@ -3012,25 +7657,25 @@
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D44" s="5">
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H44" s="5">
         <v>2</v>
@@ -3038,25 +7683,25 @@
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D45" s="5">
         <v>0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H45" s="5">
         <v>2</v>
@@ -3064,25 +7709,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H46" s="5">
         <v>2</v>
@@ -3090,25 +7735,25 @@
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H47" s="5">
         <v>2</v>
@@ -3116,25 +7761,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H48" s="5">
         <v>1</v>
@@ -3142,25 +7787,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H49" s="5">
         <v>2</v>
@@ -3168,25 +7813,25 @@
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D50" s="5">
         <v>2</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H50" s="5">
         <v>1</v>
@@ -3194,25 +7839,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D51" s="5">
         <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H51" s="5">
         <v>1</v>
@@ -3220,25 +7865,25 @@
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D52" s="5">
         <v>3</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H52" s="5">
         <v>2</v>
@@ -3246,25 +7891,25 @@
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H53" s="5">
         <v>1</v>
@@ -3272,25 +7917,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D54" s="5">
         <v>0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H54" s="5">
         <v>2</v>
@@ -3298,25 +7943,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H55" s="5">
         <v>1</v>
@@ -3324,25 +7969,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H56" s="5">
         <v>2</v>
@@ -3350,25 +7995,25 @@
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H57" s="5">
         <v>2</v>
@@ -3376,25 +8021,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D58" s="5">
         <v>2</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H58" s="5">
         <v>1</v>
@@ -3402,25 +8047,25 @@
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H59" s="5">
         <v>2</v>
@@ -3428,25 +8073,25 @@
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H60" s="5">
         <v>2</v>
@@ -3454,25 +8099,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D61" s="5">
         <v>7</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H61" s="5">
         <v>2</v>
@@ -3480,25 +8125,25 @@
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D62" s="5">
         <v>5</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H62" s="5">
         <v>1</v>
@@ -3506,25 +8151,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s">
         <v>232</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D63" s="5">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" t="s">
-        <v>240</v>
       </c>
       <c r="H63" s="5">
         <v>2</v>
@@ -3532,25 +8177,25 @@
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D64" s="5">
         <v>4</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H64" s="5">
         <v>1</v>
@@ -3558,25 +8203,25 @@
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D65" s="5">
         <v>3</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H65" s="5">
         <v>2</v>
@@ -3584,25 +8229,25 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D66" s="5">
         <v>-2</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H66" s="5">
         <v>3</v>
@@ -3610,25 +8255,25 @@
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D67" s="5">
         <v>3</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H67" s="5">
         <v>2</v>
@@ -3636,25 +8281,25 @@
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D68" s="5">
         <v>2</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H68" s="5">
         <v>1</v>
@@ -3662,25 +8307,25 @@
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D69" s="5">
         <v>6</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H69" s="5">
         <v>2</v>
@@ -3688,25 +8333,25 @@
     </row>
     <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D70" s="5">
         <v>4</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H70" s="5">
         <v>2</v>
@@ -3714,25 +8359,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D71" s="5">
         <v>0</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H71" s="5">
         <v>2</v>
@@ -3740,25 +8385,25 @@
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D72" s="5">
         <v>0</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H72" s="5">
         <v>1</v>
@@ -3766,25 +8411,25 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D73" s="5">
         <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H73" s="5">
         <v>2</v>
@@ -3792,25 +8437,25 @@
     </row>
     <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D74" s="5">
         <v>0</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H74" s="5">
         <v>1</v>
@@ -3818,25 +8463,25 @@
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D75" s="5">
         <v>2</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H75" s="5">
         <v>1</v>
@@ -3844,25 +8489,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D76" s="5">
         <v>1</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H76" s="5">
         <v>1</v>
@@ -3870,25 +8515,25 @@
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D77" s="5">
         <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H77" s="5">
         <v>1</v>
@@ -3896,25 +8541,25 @@
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D78" s="5">
         <v>5</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H78" s="5">
         <v>3</v>
@@ -3922,25 +8567,25 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D79" s="5">
         <v>1</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H79" s="5">
         <v>1</v>
@@ -3948,25 +8593,25 @@
     </row>
     <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D80" s="5">
         <v>2</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H80" s="5">
         <v>2</v>
@@ -3974,25 +8619,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D81" s="5">
         <v>3</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H81" s="5">
         <v>1</v>
@@ -4000,25 +8645,25 @@
     </row>
     <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H82" s="5">
         <v>1</v>
@@ -4026,25 +8671,25 @@
     </row>
     <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D83" s="5">
         <v>5</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H83" s="5">
         <v>1</v>
@@ -4052,25 +8697,25 @@
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D84" s="5">
         <v>5</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H84" s="5">
         <v>1</v>
@@ -4078,25 +8723,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D85" s="5">
         <v>4</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H85" s="5">
         <v>1</v>
@@ -4104,25 +8749,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H86" s="5">
         <v>1</v>
@@ -4130,25 +8775,25 @@
     </row>
     <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D87" s="5">
         <v>2</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H87" s="5">
         <v>1</v>
@@ -4156,25 +8801,25 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D88" s="5">
         <v>3</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H88" s="5">
         <v>2</v>
@@ -4182,25 +8827,25 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D89" s="5">
         <v>2</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H89" s="5">
         <v>1</v>
@@ -4208,25 +8853,25 @@
     </row>
     <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D90" s="5">
         <v>5</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H90" s="5">
         <v>1</v>
@@ -4234,25 +8879,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D91" s="5">
         <v>0</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H91" s="5">
         <v>1</v>
@@ -4260,25 +8905,25 @@
     </row>
     <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D92" s="5">
         <v>3</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H92" s="5">
         <v>2</v>
@@ -4286,25 +8931,25 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D93" s="5">
         <v>2</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H93" s="5">
         <v>1</v>
@@ -4312,25 +8957,25 @@
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D94" s="5">
         <v>3</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H94" s="5">
         <v>1</v>
@@ -4338,25 +8983,25 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D95" s="5">
         <v>3</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H95" s="5">
         <v>1</v>
@@ -4364,25 +9009,25 @@
     </row>
     <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D96" s="5">
         <v>4</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H96" s="5">
         <v>1</v>
@@ -4390,25 +9035,25 @@
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D97" s="5">
         <v>2</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H97" s="5">
         <v>1</v>
@@ -4416,25 +9061,25 @@
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D98" s="5">
         <v>5</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H98" s="5">
         <v>1</v>
@@ -4442,25 +9087,25 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D99" s="5">
         <v>1</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H99" s="5">
         <v>2</v>
@@ -4468,25 +9113,25 @@
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D100" s="5">
         <v>2</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H100" s="5">
         <v>1</v>
@@ -4494,22 +9139,22 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D101" s="5">
         <v>0</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H101" s="5">
         <v>2</v>
@@ -4517,22 +9162,22 @@
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D102" s="5">
         <v>5</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H102" s="5">
         <v>1</v>
@@ -4540,22 +9185,22 @@
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D103" s="5">
         <v>2</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H103" s="5">
         <v>1</v>
@@ -4563,22 +9208,22 @@
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D104" s="5">
         <v>4</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H104" s="5">
         <v>1</v>
@@ -4586,22 +9231,22 @@
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D105" s="5">
         <v>2</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H105" s="5">
         <v>2</v>
@@ -4609,22 +9254,22 @@
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D106" s="5">
         <v>3</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H106" s="5">
         <v>1</v>
@@ -4632,22 +9277,22 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D107" s="5">
         <v>1</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H107" s="5">
         <v>2</v>
@@ -4655,22 +9300,22 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D108" s="5">
         <v>1</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H108" s="5">
         <v>1</v>
@@ -4678,22 +9323,22 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D109" s="5">
         <v>2</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H109" s="5">
         <v>2</v>
@@ -4701,22 +9346,22 @@
     </row>
     <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D110" s="5">
         <v>1</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H110" s="5">
         <v>1</v>
@@ -4724,22 +9369,22 @@
     </row>
     <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D111" s="5">
         <v>1</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H111" s="5">
         <v>1</v>
@@ -4747,22 +9392,22 @@
     </row>
     <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D112" s="5">
         <v>0</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H112" s="5">
         <v>1</v>

--- a/VadersLittleHelper.Backend/db/ComponentDB.xlsx
+++ b/VadersLittleHelper.Backend/db/ComponentDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5295" windowHeight="5790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5295" windowHeight="5790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ShipDB" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="649">
   <si>
     <t>Ship</t>
   </si>
@@ -1937,6 +1937,42 @@
   </si>
   <si>
     <t>S0019</t>
+  </si>
+  <si>
+    <t>U0100</t>
+  </si>
+  <si>
+    <t>U0101</t>
+  </si>
+  <si>
+    <t>U0102</t>
+  </si>
+  <si>
+    <t>U0103</t>
+  </si>
+  <si>
+    <t>U0104</t>
+  </si>
+  <si>
+    <t>U0105</t>
+  </si>
+  <si>
+    <t>U0106</t>
+  </si>
+  <si>
+    <t>U0107</t>
+  </si>
+  <si>
+    <t>U0108</t>
+  </si>
+  <si>
+    <t>U0109</t>
+  </si>
+  <si>
+    <t>U0110</t>
+  </si>
+  <si>
+    <t>U0111</t>
   </si>
 </sst>
 </file>
@@ -2323,7 +2359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -6524,9 +6560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97:A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9138,6 +9174,9 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>637</v>
+      </c>
       <c r="B101" s="5" t="s">
         <v>351</v>
       </c>
@@ -9161,6 +9200,9 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>638</v>
+      </c>
       <c r="B102" s="5" t="s">
         <v>353</v>
       </c>
@@ -9184,6 +9226,9 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>639</v>
+      </c>
       <c r="B103" s="5" t="s">
         <v>355</v>
       </c>
@@ -9207,6 +9252,9 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="B104" s="5" t="s">
         <v>357</v>
       </c>
@@ -9230,6 +9278,9 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>641</v>
+      </c>
       <c r="B105" s="5" t="s">
         <v>359</v>
       </c>
@@ -9253,6 +9304,9 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>642</v>
+      </c>
       <c r="B106" s="5" t="s">
         <v>361</v>
       </c>
@@ -9276,6 +9330,9 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>643</v>
+      </c>
       <c r="B107" s="5" t="s">
         <v>363</v>
       </c>
@@ -9299,6 +9356,9 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>644</v>
+      </c>
       <c r="B108" s="5" t="s">
         <v>365</v>
       </c>
@@ -9322,6 +9382,9 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>645</v>
+      </c>
       <c r="B109" s="5" t="s">
         <v>367</v>
       </c>
@@ -9345,6 +9408,9 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>646</v>
+      </c>
       <c r="B110" s="5" t="s">
         <v>369</v>
       </c>
@@ -9368,6 +9434,9 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>647</v>
+      </c>
       <c r="B111" s="5" t="s">
         <v>371</v>
       </c>
@@ -9391,6 +9460,9 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>648</v>
+      </c>
       <c r="B112" s="5" t="s">
         <v>373</v>
       </c>

--- a/VadersLittleHelper.Backend/db/ComponentDB.xlsx
+++ b/VadersLittleHelper.Backend/db/ComponentDB.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="741">
   <si>
     <t>Ship</t>
   </si>
@@ -1973,6 +1973,282 @@
   </si>
   <si>
     <t>U0111</t>
+  </si>
+  <si>
+    <t>Tycho Celchu</t>
+  </si>
+  <si>
+    <t>Arvel Crynyd</t>
+  </si>
+  <si>
+    <t>You may declare an enemy ship inside your firing arc that you are touching as the target of your attack.</t>
+  </si>
+  <si>
+    <t>You may perform actions even while you have stress tokens.</t>
+  </si>
+  <si>
+    <t>Concussion Missiles</t>
+  </si>
+  <si>
+    <t>FP: 4, RNG: 2-3 ATTACK (TARGET LOCK): Spend the target lock and discard this card to perfrorm this attack. You may change one of your blank results for a HIT result.</t>
+  </si>
+  <si>
+    <t>Cluster Missiles</t>
+  </si>
+  <si>
+    <t>FP: 3, RNG: 1-2 ATTACK (TARGET LOCK): Spend your target lock and discard this card to perform this attack TWICE.</t>
+  </si>
+  <si>
+    <t>Push The Limit</t>
+  </si>
+  <si>
+    <t>Once per round, after you perform an action, you may perform 1 free action shown in your action bar. Then receive 1 stress token.</t>
+  </si>
+  <si>
+    <t>Deadeye</t>
+  </si>
+  <si>
+    <t>You may treat the 'ATTACK (TARGET LOCK)' header as 'ATTACK (FOCUS)'. When an attack instructs you to spend a target lock, you may spend a focus token instead.</t>
+  </si>
+  <si>
+    <t>Plasma Torpedoes</t>
+  </si>
+  <si>
+    <t>FP: 4, RNG: 2-3 ATTACK (TARGET LOCK): Spend your target lock and discard this card ot perform this attack. If this attack hits, After dealing damage, remove 1 shield token from the defender.</t>
+  </si>
+  <si>
+    <t>Twin Laser Turret</t>
+  </si>
+  <si>
+    <t>FP: 3, RNG: 2-3 ATTACK: Perform this attack TWICE (even against a ship outside your firing arc). Each time this attack hits, the defender suffers 1 damage. Then cancel ALL dice results.</t>
+  </si>
+  <si>
+    <t>Adv. Homing Missiles</t>
+  </si>
+  <si>
+    <t>FP: 3, RNG 2 ATTACK (TARGET LOCK): Discard this card to perfrom this attack. If this attack hits, deal 1 face-up damage card to the defender. Then cancel ALL dice results.</t>
+  </si>
+  <si>
+    <t>Bombardier</t>
+  </si>
+  <si>
+    <t>When dropping a bomb, you may use the [FORWARD 2] template instead of the [FORWARD 1] template.</t>
+  </si>
+  <si>
+    <t>Conner Net</t>
+  </si>
+  <si>
+    <t>ACTION: Discard this card to DROP 1 Conner net token. When a ship's base or maneuver template overlaps this token, this token DETONATES.</t>
+  </si>
+  <si>
+    <t>Extra Munitions</t>
+  </si>
+  <si>
+    <t>When you equip this card, place 1 ordnance token on each equipped TORPEDO, MISSILE and BOMB Upgrade card. When you are instructed to discard an upgrade card, you may discard 1 ordnance token on that card instead.</t>
+  </si>
+  <si>
+    <t>Ion Bombs</t>
+  </si>
+  <si>
+    <t>When you reveal your maneuver dial, you may discard this card to DROP 1 ion bomb token. This token detonates at the end of the activation phase.</t>
+  </si>
+  <si>
+    <t>Advanced SLAM</t>
+  </si>
+  <si>
+    <t>After performing a SLAM action, if you did not overlap an obstacle or another ship, you may perform a free action</t>
+  </si>
+  <si>
+    <t>K-Wing</t>
+  </si>
+  <si>
+    <t>Miranda Doni</t>
+  </si>
+  <si>
+    <t>Once per round when attacking, you may either spend 1 shield to roll 1 additional attack die OR roll 1 fewer attack die to recover 1 shield.</t>
+  </si>
+  <si>
+    <t>Esege Tuketu</t>
+  </si>
+  <si>
+    <t>When another friendly ship at Range 1-2 is attacking, it may treat your focus tokens as its own.</t>
+  </si>
+  <si>
+    <t>Guardian Squadron Pilot</t>
+  </si>
+  <si>
+    <t>Warden Squadron Pilot</t>
+  </si>
+  <si>
+    <t>Scurrg H-6 Bomber</t>
+  </si>
+  <si>
+    <t>S0020</t>
+  </si>
+  <si>
+    <t>S0021</t>
+  </si>
+  <si>
+    <t>Captain Nym</t>
+  </si>
+  <si>
+    <t>Once per round, you may prevent a friendly bomb from detonating.</t>
+  </si>
+  <si>
+    <t>You may ignore friendly bombs. When a friendly ship is defending, if the attacker measures range through a friendly bomb token, the defender may add 1 EVADE result.</t>
+  </si>
+  <si>
+    <t>Sol Sixxa</t>
+  </si>
+  <si>
+    <t>When dropping a bomb, you may use the [TURN 1] template instead of the [FORWARD 1] template.</t>
+  </si>
+  <si>
+    <t>Lok Revenant</t>
+  </si>
+  <si>
+    <t>Karthakk Pirate</t>
+  </si>
+  <si>
+    <t>P0096</t>
+  </si>
+  <si>
+    <t>P0097</t>
+  </si>
+  <si>
+    <t>P0098</t>
+  </si>
+  <si>
+    <t>P0099</t>
+  </si>
+  <si>
+    <t>P0100</t>
+  </si>
+  <si>
+    <t>P0101</t>
+  </si>
+  <si>
+    <t>P0102</t>
+  </si>
+  <si>
+    <t>P0103</t>
+  </si>
+  <si>
+    <t>P0104</t>
+  </si>
+  <si>
+    <t>P0105</t>
+  </si>
+  <si>
+    <t>P0106</t>
+  </si>
+  <si>
+    <t>Lightning Reflexes</t>
+  </si>
+  <si>
+    <t>SMALL SHIP ONLY. After you execute a white or green maneuveron your dial, you may discard this card to rotate your ship 180 degrees. Then receive 1 stress token AFTER the 'check pilot stress' step.</t>
+  </si>
+  <si>
+    <t>Minefield Mapper</t>
+  </si>
+  <si>
+    <t>During setup, after the 'place forces' step, you may discard any number of equipped BOMB upgrade cards. Place all corresponding bomb tokens in the play area beyond Range 3 of enemy ships.</t>
+  </si>
+  <si>
+    <t>Synced Turret</t>
+  </si>
+  <si>
+    <t>FP: 3, RNG 1-2 ATTACK (TARGET LOCK): Attack 1 ship (even a ship outside yoru firing arc). If the defender is inside your primary firing arc, you may reroll a number of attack dice up to your primary weapoon value.</t>
+  </si>
+  <si>
+    <t>Cruise Missiles</t>
+  </si>
+  <si>
+    <t>FP: 1, RNG: 2-3 ATTACK (TARGET LOCK): Discard this card to perform this attack. You may roll additional attack dice equal to the speed of the maneuver you executed this round, to a maximum of 4 additional dice.</t>
+  </si>
+  <si>
+    <t>Cad Bane</t>
+  </si>
+  <si>
+    <t>SCUM ONLY. Your upgrade bar gains the BOMB icon. Once per round, when an enemy ship rolls attack dice due to a friendly bomb detonating, you may choose any number of FOCUS and BLANK results. It must reroll those results.</t>
+  </si>
+  <si>
+    <t>Bomblet Generator</t>
+  </si>
+  <si>
+    <t>When you reveal your maneuver, you may DROP 1 bomblet token. This token detonates at the end of the activation phase. (REQUIRES 2xBOMB SLOTS)</t>
+  </si>
+  <si>
+    <t>R4-E1</t>
+  </si>
+  <si>
+    <t>You can perform actions on you TORPEDO and BOMB Upgrade cards even if you are stressed. After you perform an action in this way, you may discard this card to remove 1 stress token from your ship.</t>
+  </si>
+  <si>
+    <t>Havoc</t>
+  </si>
+  <si>
+    <t>SCURRG H-6 BOMBER ONLY. Your upgrade bar gains the SYSTEM and SALVAGED ASTROMECH upgrade icons, and loses the CREW  upgrade icon. You cannot equip non-unique SALVAGED ASTROMECH Upgrade cards.</t>
+  </si>
+  <si>
+    <t>U0112</t>
+  </si>
+  <si>
+    <t>U0113</t>
+  </si>
+  <si>
+    <t>U0114</t>
+  </si>
+  <si>
+    <t>U0115</t>
+  </si>
+  <si>
+    <t>U0116</t>
+  </si>
+  <si>
+    <t>U0117</t>
+  </si>
+  <si>
+    <t>U0118</t>
+  </si>
+  <si>
+    <t>U0119</t>
+  </si>
+  <si>
+    <t>U0120</t>
+  </si>
+  <si>
+    <t>U0121</t>
+  </si>
+  <si>
+    <t>U0122</t>
+  </si>
+  <si>
+    <t>U0123</t>
+  </si>
+  <si>
+    <t>U0124</t>
+  </si>
+  <si>
+    <t>U0125</t>
+  </si>
+  <si>
+    <t>U0126</t>
+  </si>
+  <si>
+    <t>U0127</t>
+  </si>
+  <si>
+    <t>U0128</t>
+  </si>
+  <si>
+    <t>U0129</t>
+  </si>
+  <si>
+    <t>U0130</t>
+  </si>
+  <si>
+    <t>U0131</t>
   </si>
 </sst>
 </file>
@@ -2357,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,7 +2773,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2586,6 +2862,28 @@
       </c>
       <c r="C20">
         <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>685</v>
+      </c>
+      <c r="B21" t="s">
+        <v>677</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>686</v>
+      </c>
+      <c r="B22" t="s">
+        <v>684</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2596,11 +2894,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4702,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="M51" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -4743,7 +5041,7 @@
         <v>2</v>
       </c>
       <c r="M52" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -6547,6 +6845,457 @@
         <v>1</v>
       </c>
       <c r="M96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D97" s="9">
+        <v>26</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="5">
+        <v>8</v>
+      </c>
+      <c r="I97" s="5">
+        <v>2</v>
+      </c>
+      <c r="J97" s="5">
+        <v>3</v>
+      </c>
+      <c r="K97" s="5">
+        <v>2</v>
+      </c>
+      <c r="L97" s="5">
+        <v>2</v>
+      </c>
+      <c r="M97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D98" s="9">
+        <v>23</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="5">
+        <v>6</v>
+      </c>
+      <c r="I98" s="5">
+        <v>2</v>
+      </c>
+      <c r="J98" s="5">
+        <v>3</v>
+      </c>
+      <c r="K98" s="5">
+        <v>2</v>
+      </c>
+      <c r="L98" s="5">
+        <v>2</v>
+      </c>
+      <c r="M98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D99" s="9">
+        <v>29</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="5">
+        <v>8</v>
+      </c>
+      <c r="I99" s="5">
+        <v>2</v>
+      </c>
+      <c r="J99" s="5">
+        <v>1</v>
+      </c>
+      <c r="K99" s="5">
+        <v>5</v>
+      </c>
+      <c r="L99" s="5">
+        <v>4</v>
+      </c>
+      <c r="M99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D100" s="9">
+        <v>28</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="5">
+        <v>6</v>
+      </c>
+      <c r="I100" s="5">
+        <v>2</v>
+      </c>
+      <c r="J100" s="5">
+        <v>1</v>
+      </c>
+      <c r="K100" s="5">
+        <v>5</v>
+      </c>
+      <c r="L100" s="5">
+        <v>4</v>
+      </c>
+      <c r="M100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D101" s="9">
+        <v>25</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="5">
+        <v>4</v>
+      </c>
+      <c r="I101" s="5">
+        <v>2</v>
+      </c>
+      <c r="J101" s="5">
+        <v>1</v>
+      </c>
+      <c r="K101" s="5">
+        <v>5</v>
+      </c>
+      <c r="L101" s="5">
+        <v>4</v>
+      </c>
+      <c r="M101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D102" s="9">
+        <v>23</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="5">
+        <v>2</v>
+      </c>
+      <c r="I102" s="5">
+        <v>2</v>
+      </c>
+      <c r="J102" s="5">
+        <v>1</v>
+      </c>
+      <c r="K102" s="5">
+        <v>5</v>
+      </c>
+      <c r="L102" s="5">
+        <v>4</v>
+      </c>
+      <c r="M102" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="D103" s="9">
+        <v>30</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="5">
+        <v>8</v>
+      </c>
+      <c r="I103" s="5">
+        <v>3</v>
+      </c>
+      <c r="J103" s="5">
+        <v>1</v>
+      </c>
+      <c r="K103" s="5">
+        <v>5</v>
+      </c>
+      <c r="L103" s="5">
+        <v>5</v>
+      </c>
+      <c r="M103" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D104" s="9">
+        <v>30</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="5">
+        <v>8</v>
+      </c>
+      <c r="I104" s="5">
+        <v>3</v>
+      </c>
+      <c r="J104" s="5">
+        <v>1</v>
+      </c>
+      <c r="K104" s="5">
+        <v>5</v>
+      </c>
+      <c r="L104" s="5">
+        <v>5</v>
+      </c>
+      <c r="M104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D105" s="9">
+        <v>28</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="5">
+        <v>6</v>
+      </c>
+      <c r="I105" s="5">
+        <v>3</v>
+      </c>
+      <c r="J105" s="5">
+        <v>1</v>
+      </c>
+      <c r="K105" s="5">
+        <v>5</v>
+      </c>
+      <c r="L105" s="5">
+        <v>5</v>
+      </c>
+      <c r="M105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D106" s="9">
+        <v>26</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="5">
+        <v>3</v>
+      </c>
+      <c r="I106" s="5">
+        <v>3</v>
+      </c>
+      <c r="J106" s="5">
+        <v>1</v>
+      </c>
+      <c r="K106" s="5">
+        <v>5</v>
+      </c>
+      <c r="L106" s="5">
+        <v>5</v>
+      </c>
+      <c r="M106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D107" s="9">
+        <v>24</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="5">
+        <v>1</v>
+      </c>
+      <c r="I107" s="5">
+        <v>3</v>
+      </c>
+      <c r="J107" s="5">
+        <v>1</v>
+      </c>
+      <c r="K107" s="5">
+        <v>5</v>
+      </c>
+      <c r="L107" s="5">
+        <v>5</v>
+      </c>
+      <c r="M107" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6558,11 +7307,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97:A112"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="A110:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8338,7 +9087,7 @@
         <v>251</v>
       </c>
       <c r="H68" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8728,7 +9477,7 @@
         <v>246</v>
       </c>
       <c r="H83" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9482,6 +10231,526 @@
         <v>18</v>
       </c>
       <c r="H112" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D113" s="5">
+        <v>4</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D114" s="5">
+        <v>4</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H114" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D115" s="5">
+        <v>3</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D117" s="5">
+        <v>3</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H117" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D118" s="5">
+        <v>6</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H118" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D119" s="5">
+        <v>3</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H119" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H120" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D121" s="5">
+        <v>4</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H121" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D122" s="5">
+        <v>2</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H122" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D123" s="5">
+        <v>2</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H123" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D124" s="5">
+        <v>2</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D125" s="5">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D126" s="5">
+        <v>0</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H126" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D127" s="5">
+        <v>4</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H127" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D128" s="5">
+        <v>3</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H128" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D129" s="5">
+        <v>2</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H129" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D130" s="5">
+        <v>3</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H130" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D131" s="5">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H131" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D132" s="5">
+        <v>0</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H132" s="5">
         <v>1</v>
       </c>
     </row>

--- a/VadersLittleHelper.Backend/db/ComponentDB.xlsx
+++ b/VadersLittleHelper.Backend/db/ComponentDB.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="809">
   <si>
     <t>Ship</t>
   </si>
@@ -2249,6 +2249,210 @@
   </si>
   <si>
     <t>U0131</t>
+  </si>
+  <si>
+    <t>Flechette Torpedoes</t>
+  </si>
+  <si>
+    <t>FP: 3, RNG: 2-3 ATTACK (TARGET LOCK): Discard this card and spend your target lock to perform this attack. After you perform this attack, the defender receives 1 stress token if its hull value is '4' or lower.</t>
+  </si>
+  <si>
+    <t>R7 Astromech</t>
+  </si>
+  <si>
+    <t>Once per round when defending, if you have a target lock on the attacker, you may spend the target lock to choose any or all attack dice. The attacker must reroll the chosen dice.</t>
+  </si>
+  <si>
+    <t>R7-T1</t>
+  </si>
+  <si>
+    <t>ACTION: Choose an enemy ship at range 1-2. If you are inside that ship's firing arc, you may acquire a target lock on that ship. Then, you may perform a free boost action.</t>
+  </si>
+  <si>
+    <t>Outmaneuver</t>
+  </si>
+  <si>
+    <t>When attacking a ship inside your firing arc, if you are not inside that ship's firing arc, reduce its agility value by 1 (to a minimum of 0).</t>
+  </si>
+  <si>
+    <t>Advanced Sensors</t>
+  </si>
+  <si>
+    <t>Immediately before you reveal your maneuver, you may perform 1 free action. If you use this ability, you must skip your 'perform action' step during this round.</t>
+  </si>
+  <si>
+    <t>U0132</t>
+  </si>
+  <si>
+    <t>U0133</t>
+  </si>
+  <si>
+    <t>U0134</t>
+  </si>
+  <si>
+    <t>U0135</t>
+  </si>
+  <si>
+    <t>U0136</t>
+  </si>
+  <si>
+    <t>S0022</t>
+  </si>
+  <si>
+    <t>E-Wing</t>
+  </si>
+  <si>
+    <t>Corran Horn</t>
+  </si>
+  <si>
+    <t>At the start of the End phase, you may perform one attack. You cannot attack during the next round.</t>
+  </si>
+  <si>
+    <t>Etahn A'baht</t>
+  </si>
+  <si>
+    <t>When an enemy ship inside your firing arc at Range 1-3 is defending, the attacker may change 1 of its HIT results to a CRIT result.</t>
+  </si>
+  <si>
+    <t>Blackmoon Squadron Pilot</t>
+  </si>
+  <si>
+    <t>Knave Squadron Pilot</t>
+  </si>
+  <si>
+    <t>Dengar</t>
+  </si>
+  <si>
+    <t>Once per round after defending, if the attacker is inside your firing arc, you may perform an attack against that ship.</t>
+  </si>
+  <si>
+    <t>JumpMaster 5000</t>
+  </si>
+  <si>
+    <t>S0023</t>
+  </si>
+  <si>
+    <t>Tel Trevura</t>
+  </si>
+  <si>
+    <t>The first time you would be destroyed, instead cancel any remaining damage, discard all damage cards, and deal 4 facedown damage cards to this ship.</t>
+  </si>
+  <si>
+    <t>Manaroo</t>
+  </si>
+  <si>
+    <t>At the start of the combat phase, you may assign all focus, evade and target lock tokens assigned to you to another ship.</t>
+  </si>
+  <si>
+    <t>Contracted Scout</t>
+  </si>
+  <si>
+    <t>P0107</t>
+  </si>
+  <si>
+    <t>P0108</t>
+  </si>
+  <si>
+    <t>P0109</t>
+  </si>
+  <si>
+    <t>P0110</t>
+  </si>
+  <si>
+    <t>P0111</t>
+  </si>
+  <si>
+    <t>P0112</t>
+  </si>
+  <si>
+    <t>P0113</t>
+  </si>
+  <si>
+    <t>P0114</t>
+  </si>
+  <si>
+    <t>Rage</t>
+  </si>
+  <si>
+    <t>ACTION: Assign 1 focus token to your ship and receive 2 stress tokens. Until the end of the round, when attacking, you may reroll up to 3 attack dice.</t>
+  </si>
+  <si>
+    <t>Attanni Mindlink</t>
+  </si>
+  <si>
+    <t>SCUM ONLY. Each time you are assigned a focus or stress token, each other friendly ship with Attanni Mindlink must also be assigned the same type of token if it does not already have one.</t>
+  </si>
+  <si>
+    <t>SCUM ONLY. After performing an attack, if the defender was dealt a faceup Damage card, you may discard this card to choose and discard 1 of the defender's Upgrade cards.</t>
+  </si>
+  <si>
+    <t>SCUM ONLY. When attacking, you may reroll 1 attack die. If the defender is a unique pilot, you may instead reroll up to 2 attack dice.</t>
+  </si>
+  <si>
+    <t>"Gonk"</t>
+  </si>
+  <si>
+    <t>SCUM ONLY. ACTION: Place 1 shield token on this card. ACTION: Remove 1 shield token from this card to recover 1 shield (up to your shield value).</t>
+  </si>
+  <si>
+    <t>R5-P8</t>
+  </si>
+  <si>
+    <t>Once per round, after defending, you may roll 1 attack die. On a HIT result, the attacker suffers 1 damage. On a CRIT result, you and the attacker each suffer 1 damage.</t>
+  </si>
+  <si>
+    <t>Overclocked R4</t>
+  </si>
+  <si>
+    <t>During the combat phase, when you spend a focus token, you may receive 1 stress token to assign 1 focus token to your ship.</t>
+  </si>
+  <si>
+    <t>Feedback Arrack</t>
+  </si>
+  <si>
+    <t>During the combat phase, instead of performing any attacks, you may receive 1 ion token and suffer 1 damage to choose 1 enemy ship at range 1, That ship suffers 1 damage.</t>
+  </si>
+  <si>
+    <t>Guidance Chips</t>
+  </si>
+  <si>
+    <t>Once per round, when attacking with a TORPEDO or MISSILE secondary weapon, you may change 1 die result to a HIT result (or a CRIT result if your primary weapon value is '3' or higher).</t>
+  </si>
+  <si>
+    <t>Punishing One</t>
+  </si>
+  <si>
+    <t>JUMPMASTER 5000 ONLY. Increase your primary weapon value by 1.</t>
+  </si>
+  <si>
+    <t>U0137</t>
+  </si>
+  <si>
+    <t>U0138</t>
+  </si>
+  <si>
+    <t>U0139</t>
+  </si>
+  <si>
+    <t>U0140</t>
+  </si>
+  <si>
+    <t>U0141</t>
+  </si>
+  <si>
+    <t>U0142</t>
+  </si>
+  <si>
+    <t>U0143</t>
+  </si>
+  <si>
+    <t>U0144</t>
+  </si>
+  <si>
+    <t>U0145</t>
+  </si>
+  <si>
+    <t>U0146</t>
   </si>
 </sst>
 </file>
@@ -2633,10 +2837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2886,6 +3090,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>756</v>
+      </c>
+      <c r="B23" t="s">
+        <v>757</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>767</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2894,11 +3120,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7299,6 +7525,334 @@
         <v>1</v>
       </c>
     </row>
+    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="D108" s="9">
+        <v>35</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="5">
+        <v>8</v>
+      </c>
+      <c r="I108" s="5">
+        <v>3</v>
+      </c>
+      <c r="J108" s="5">
+        <v>3</v>
+      </c>
+      <c r="K108" s="5">
+        <v>2</v>
+      </c>
+      <c r="L108" s="5">
+        <v>3</v>
+      </c>
+      <c r="M108" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="D109" s="9">
+        <v>32</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="5">
+        <v>5</v>
+      </c>
+      <c r="I109" s="5">
+        <v>3</v>
+      </c>
+      <c r="J109" s="5">
+        <v>3</v>
+      </c>
+      <c r="K109" s="5">
+        <v>2</v>
+      </c>
+      <c r="L109" s="5">
+        <v>3</v>
+      </c>
+      <c r="M109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D110" s="9">
+        <v>29</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="5">
+        <v>3</v>
+      </c>
+      <c r="I110" s="5">
+        <v>3</v>
+      </c>
+      <c r="J110" s="5">
+        <v>3</v>
+      </c>
+      <c r="K110" s="5">
+        <v>2</v>
+      </c>
+      <c r="L110" s="5">
+        <v>3</v>
+      </c>
+      <c r="M110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D111" s="9">
+        <v>27</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="5">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5">
+        <v>3</v>
+      </c>
+      <c r="J111" s="5">
+        <v>3</v>
+      </c>
+      <c r="K111" s="5">
+        <v>2</v>
+      </c>
+      <c r="L111" s="5">
+        <v>3</v>
+      </c>
+      <c r="M111" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="D112" s="9">
+        <v>33</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" s="5">
+        <v>9</v>
+      </c>
+      <c r="I112" s="5">
+        <v>2</v>
+      </c>
+      <c r="J112" s="5">
+        <v>2</v>
+      </c>
+      <c r="K112" s="5">
+        <v>5</v>
+      </c>
+      <c r="L112" s="5">
+        <v>4</v>
+      </c>
+      <c r="M112" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="D113" s="9">
+        <v>30</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="5">
+        <v>7</v>
+      </c>
+      <c r="I113" s="5">
+        <v>2</v>
+      </c>
+      <c r="J113" s="5">
+        <v>2</v>
+      </c>
+      <c r="K113" s="5">
+        <v>5</v>
+      </c>
+      <c r="L113" s="5">
+        <v>4</v>
+      </c>
+      <c r="M113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="D114" s="9">
+        <v>27</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="5">
+        <v>4</v>
+      </c>
+      <c r="I114" s="5">
+        <v>2</v>
+      </c>
+      <c r="J114" s="5">
+        <v>2</v>
+      </c>
+      <c r="K114" s="5">
+        <v>5</v>
+      </c>
+      <c r="L114" s="5">
+        <v>4</v>
+      </c>
+      <c r="M114" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D115" s="9">
+        <v>25</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="5">
+        <v>3</v>
+      </c>
+      <c r="I115" s="5">
+        <v>2</v>
+      </c>
+      <c r="J115" s="5">
+        <v>2</v>
+      </c>
+      <c r="K115" s="5">
+        <v>5</v>
+      </c>
+      <c r="L115" s="5">
+        <v>4</v>
+      </c>
+      <c r="M115" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7307,11 +7861,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A110" sqref="A110:A132"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10361,7 +10915,7 @@
         <v>251</v>
       </c>
       <c r="H117" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10751,6 +11305,396 @@
         <v>53</v>
       </c>
       <c r="H132" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D133" s="5">
+        <v>2</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H133" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D134" s="5">
+        <v>2</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H134" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D135" s="5">
+        <v>3</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H135" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D136" s="5">
+        <v>3</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D137" s="5">
+        <v>3</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H137" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D138" s="5">
+        <v>1</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D140" s="5">
+        <v>1</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H140" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D141" s="5">
+        <v>3</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H141" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D142" s="5">
+        <v>2</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D143" s="5">
+        <v>3</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H143" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D144" s="5">
+        <v>1</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H144" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D145" s="5">
+        <v>2</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D146" s="5">
+        <v>0</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D147" s="5">
+        <v>12</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H147" s="5">
         <v>1</v>
       </c>
     </row>
